--- a/inst/extdata/MassWateR_DQOFreqComp_Template.xlsx
+++ b/inst/extdata/MassWateR_DQOFreqComp_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D6716-725F-4AE3-AAFB-EDDD3288A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C25ED5-C828-4D97-B48E-69B20A51F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completeness" sheetId="2" r:id="rId1"/>
@@ -248,20 +248,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,6 +296,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,120 +628,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59ABFCD-EF8D-425C-92A4-3137E9EF3DBA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="22" customWidth="1"/>
+    <col min="2" max="6" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="18">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="18">
+        <v>10</v>
+      </c>
+      <c r="C4" s="18">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="18">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
+        <v>10</v>
+      </c>
+      <c r="G4" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="18">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="18">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="18">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="18">
         <v>70</v>
       </c>
     </row>
@@ -751,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B018340-0568-4AC2-B9FC-8F5216302128}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -767,142 +775,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
+      <c r="B14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
